--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_22_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_22_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56605.08544492927</v>
+        <v>11263363.30082444</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56605.08544492927</v>
+        <v>11263363.30082444</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1036471545.120183</v>
+        <v>43240763.51871426</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9348.812557463933</v>
+        <v>1058639.103607452</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17367.94306617402</v>
+        <v>1908718.605831953</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25387.07357488411</v>
+        <v>2758798.108056455</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33429.34457946195</v>
+        <v>3608877.610280957</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41471.61558403979</v>
+        <v>4458957.112505459</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49513.10034389278</v>
+        <v>5308999.195899381</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>57554.9381115814</v>
+        <v>6159078.69812388</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>65596.95790880334</v>
+        <v>7009158.200348377</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>73638.8959784797</v>
+        <v>7859237.702572876</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>81680.83404815705</v>
+        <v>8709317.204797374</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>89722.77211783275</v>
+        <v>9559396.707021877</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>97764.7101875091</v>
+        <v>10409476.20924639</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>105806.6482571854</v>
+        <v>11259555.71147089</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>113848.4042973285</v>
+        <v>12109635.2136954</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>121890.2420650171</v>
+        <v>12959714.71591991</v>
       </c>
     </row>
   </sheetData>
@@ -27037,25 +27037,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>388</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>421</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
